--- a/AAII_Financials/Quarterly/NFTN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NFTN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>NFTN</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,54 +665,57 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E7" s="2">
         <v>44592</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44500</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44408</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44316</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44227</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42855</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42766</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -740,8 +743,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -769,8 +775,11 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -798,8 +807,11 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -811,8 +823,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -840,8 +853,11 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,8 +885,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -892,14 +911,17 @@
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -927,8 +949,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -937,8 +962,9 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -966,8 +992,11 @@
       <c r="K17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -995,8 +1024,11 @@
       <c r="K18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,8 +1040,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1037,8 +1070,11 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1066,8 +1102,11 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1095,8 +1134,11 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1124,8 +1166,11 @@
       <c r="K23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1153,8 +1198,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,8 +1230,11 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1211,8 +1262,11 @@
       <c r="K26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1240,8 +1294,11 @@
       <c r="K27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1269,8 +1326,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,8 +1358,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1327,8 +1390,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1356,8 +1422,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1385,8 +1454,11 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1414,8 +1486,11 @@
       <c r="K33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,8 +1518,11 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1472,42 +1550,48 @@
       <c r="K35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E38" s="2">
         <v>44592</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44500</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44408</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44316</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44227</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42855</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42766</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1519,8 +1603,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1532,8 +1617,9 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1561,8 +1647,11 @@
       <c r="K41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1590,8 +1679,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1619,8 +1711,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1648,8 +1743,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1677,8 +1775,11 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1706,8 +1807,11 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1735,8 +1839,11 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1764,8 +1871,11 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1793,8 +1903,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +1935,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1851,8 +1967,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1880,8 +1999,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1909,8 +2031,11 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -1938,8 +2063,11 @@
       <c r="K54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1951,8 +2079,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1964,8 +2093,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1993,8 +2123,11 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2013,8 +2146,8 @@
       <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
+      <c r="I58" s="3">
+        <v>100</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
@@ -2022,8 +2155,11 @@
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2042,8 +2178,8 @@
       <c r="H59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
@@ -2051,8 +2187,11 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2080,8 +2219,11 @@
       <c r="K60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2109,8 +2251,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2138,8 +2283,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2315,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2196,8 +2347,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2225,8 +2379,11 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2254,8 +2411,11 @@
       <c r="K66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2267,8 +2427,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2296,8 +2457,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2325,8 +2489,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2354,8 +2521,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,8 +2553,11 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2392,7 +2565,7 @@
         <v>-200</v>
       </c>
       <c r="E72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F72" s="3">
         <v>-100</v>
@@ -2412,8 +2585,11 @@
       <c r="K72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +2617,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2470,8 +2649,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2499,8 +2681,11 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2528,8 +2713,11 @@
       <c r="K76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2557,42 +2745,48 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E80" s="2">
         <v>44592</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44500</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44408</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44316</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44227</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42855</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42766</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2620,8 +2814,11 @@
       <c r="K81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2633,8 +2830,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2662,8 +2860,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2691,8 +2892,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,8 +2924,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,8 +2956,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +2988,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2807,8 +3020,11 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2836,8 +3052,11 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2849,8 +3068,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2878,8 +3098,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +3130,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2936,8 +3162,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2965,8 +3194,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2978,8 +3210,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3007,8 +3240,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3272,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,8 +3304,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3094,8 +3336,11 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3123,8 +3368,11 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3152,8 +3400,11 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3179,6 +3430,9 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NFTN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NFTN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>NFTN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,57 +665,61 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E7" s="2">
         <v>44681</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44592</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44500</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44408</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44316</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44227</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42855</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42766</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -746,8 +750,11 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -778,8 +785,11 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -810,8 +820,11 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -824,8 +837,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -856,8 +870,11 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -888,40 +905,46 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -952,8 +975,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -963,8 +989,9 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -995,8 +1022,11 @@
       <c r="L17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1027,8 +1057,11 @@
       <c r="L18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1041,8 +1074,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1073,8 +1107,11 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1105,8 +1142,11 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1137,8 +1177,11 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1169,8 +1212,11 @@
       <c r="L23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1201,8 +1247,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1233,8 +1282,11 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1265,8 +1317,11 @@
       <c r="L26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1297,8 +1352,11 @@
       <c r="L27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1329,8 +1387,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1361,8 +1422,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1393,8 +1457,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1425,8 +1492,11 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1457,8 +1527,11 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1489,8 +1562,11 @@
       <c r="L33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1521,8 +1597,11 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1553,45 +1632,51 @@
       <c r="L35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E38" s="2">
         <v>44681</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44592</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44500</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44408</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44316</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44227</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42855</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42766</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1604,8 +1689,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1618,8 +1704,9 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1650,8 +1737,11 @@
       <c r="L41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1682,8 +1772,11 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1714,8 +1807,11 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1746,8 +1842,11 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1778,8 +1877,11 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1810,8 +1912,11 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1842,8 +1947,11 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1874,8 +1982,11 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1906,8 +2017,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1938,8 +2052,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1970,8 +2087,11 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2002,8 +2122,11 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2034,8 +2157,11 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2066,8 +2192,11 @@
       <c r="L54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2080,8 +2209,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2094,8 +2224,9 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2126,8 +2257,11 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2149,8 +2283,8 @@
       <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
+      <c r="J58" s="3">
+        <v>100</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
@@ -2158,8 +2292,11 @@
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2181,8 +2318,8 @@
       <c r="I59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -2190,8 +2327,11 @@
       <c r="L59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2222,8 +2362,11 @@
       <c r="L60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2254,8 +2397,11 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2286,8 +2432,11 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2318,8 +2467,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2350,8 +2502,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2382,8 +2537,11 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2414,8 +2572,11 @@
       <c r="L66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2428,8 +2589,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2460,8 +2622,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2492,8 +2657,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2524,8 +2692,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2556,8 +2727,11 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2568,7 +2742,7 @@
         <v>-200</v>
       </c>
       <c r="F72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G72" s="3">
         <v>-100</v>
@@ -2588,8 +2762,11 @@
       <c r="L72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2620,8 +2797,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2652,8 +2832,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2684,8 +2867,11 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2716,8 +2902,11 @@
       <c r="L76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2748,45 +2937,51 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E80" s="2">
         <v>44681</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44592</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44500</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44408</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44316</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44227</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42855</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42766</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2817,8 +3012,11 @@
       <c r="L81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2831,8 +3029,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2863,8 +3062,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2895,8 +3097,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2927,8 +3132,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2959,8 +3167,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2991,8 +3202,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3023,8 +3237,11 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3055,8 +3272,11 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3069,8 +3289,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3101,8 +3322,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3133,8 +3357,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3165,8 +3392,11 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3197,8 +3427,11 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3211,8 +3444,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3243,8 +3477,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3275,8 +3512,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3307,8 +3547,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3339,8 +3582,11 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3371,8 +3617,11 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3403,8 +3652,11 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3433,6 +3685,9 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NFTN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NFTN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>NFTN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,61 +665,65 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E7" s="2">
         <v>44773</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44592</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44500</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44408</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44316</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44227</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42855</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42766</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -753,8 +757,11 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -788,8 +795,11 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -823,8 +833,11 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,8 +851,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -873,8 +887,11 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,8 +925,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -934,17 +954,20 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -978,8 +1001,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -990,8 +1016,9 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1025,8 +1052,11 @@
       <c r="M17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1060,8 +1090,11 @@
       <c r="M18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1075,8 +1108,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1110,8 +1144,11 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1145,8 +1182,11 @@
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1180,8 +1220,11 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1215,8 +1258,11 @@
       <c r="M23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1250,8 +1296,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1285,8 +1334,11 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1320,8 +1372,11 @@
       <c r="M26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1355,8 +1410,11 @@
       <c r="M27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1390,8 +1448,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1425,8 +1486,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1460,8 +1524,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1495,8 +1562,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1530,8 +1600,11 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1565,8 +1638,11 @@
       <c r="M33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1600,8 +1676,11 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1635,48 +1714,54 @@
       <c r="M35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E38" s="2">
         <v>44773</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44592</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44500</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44408</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44316</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44227</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42855</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42766</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1690,8 +1775,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1705,8 +1791,9 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1740,8 +1827,11 @@
       <c r="M41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1775,8 +1865,11 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1810,8 +1903,11 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1845,8 +1941,11 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1880,8 +1979,11 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1915,8 +2017,11 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1950,8 +2055,11 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1985,8 +2093,11 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2020,8 +2131,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2055,8 +2169,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2090,8 +2207,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2125,8 +2245,11 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2160,8 +2283,11 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2195,8 +2321,11 @@
       <c r="M54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2210,8 +2339,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2225,8 +2355,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2260,8 +2391,11 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2286,8 +2420,8 @@
       <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
+      <c r="K58" s="3">
+        <v>100</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
@@ -2295,34 +2429,37 @@
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3">
-        <v>0</v>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -2330,8 +2467,11 @@
       <c r="M59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2365,8 +2505,11 @@
       <c r="M60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2400,8 +2543,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2435,8 +2581,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2470,8 +2619,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2505,8 +2657,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2540,8 +2695,11 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2575,8 +2733,11 @@
       <c r="M66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2590,8 +2751,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2625,8 +2787,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2660,8 +2825,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2695,8 +2863,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2730,8 +2901,11 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2745,7 +2919,7 @@
         <v>-200</v>
       </c>
       <c r="G72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H72" s="3">
         <v>-100</v>
@@ -2765,8 +2939,11 @@
       <c r="M72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2800,8 +2977,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2835,8 +3015,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2870,8 +3053,11 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2905,8 +3091,11 @@
       <c r="M76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2940,48 +3129,54 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E80" s="2">
         <v>44773</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44592</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44500</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44408</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44316</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44227</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42855</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42766</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3015,8 +3210,11 @@
       <c r="M81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3030,8 +3228,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3065,8 +3264,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3100,8 +3302,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3135,8 +3340,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3170,8 +3378,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3205,8 +3416,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3240,8 +3454,11 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3275,8 +3492,11 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3290,8 +3510,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3325,8 +3546,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3360,8 +3584,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3395,8 +3622,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3430,8 +3660,11 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3445,8 +3678,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3480,8 +3714,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3515,8 +3752,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3550,8 +3790,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3585,8 +3828,11 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3620,8 +3866,11 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3655,8 +3904,11 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3688,6 +3940,9 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NFTN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NFTN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>NFTN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,65 +665,69 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E7" s="2">
         <v>44865</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44773</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44592</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44500</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44316</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44227</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42855</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42766</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -760,8 +764,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -798,8 +805,11 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -836,8 +846,11 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,8 +865,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,8 +904,11 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,8 +945,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -957,17 +977,20 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1004,8 +1027,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1017,8 +1043,9 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1055,8 +1082,11 @@
       <c r="N17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1093,8 +1123,11 @@
       <c r="N18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1109,8 +1142,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1147,8 +1181,11 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1185,8 +1222,11 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1223,8 +1263,11 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1261,8 +1304,11 @@
       <c r="N23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1299,8 +1345,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1337,8 +1386,11 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1375,8 +1427,11 @@
       <c r="N26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1413,8 +1468,11 @@
       <c r="N27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1451,8 +1509,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1489,8 +1550,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1527,8 +1591,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1565,8 +1632,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1603,8 +1673,11 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1641,8 +1714,11 @@
       <c r="N33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1679,8 +1755,11 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1717,51 +1796,57 @@
       <c r="N35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E38" s="2">
         <v>44865</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44773</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44592</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44500</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44316</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44227</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42855</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42766</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1776,8 +1861,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1792,8 +1878,9 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1830,8 +1917,11 @@
       <c r="N41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1868,8 +1958,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1906,8 +1999,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1944,8 +2040,11 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1982,8 +2081,11 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2020,8 +2122,11 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2058,8 +2163,11 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2096,8 +2204,11 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2134,8 +2245,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2172,8 +2286,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2210,8 +2327,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2248,8 +2368,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2286,8 +2409,11 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2324,8 +2450,11 @@
       <c r="N54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2340,8 +2469,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2356,8 +2486,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2394,8 +2525,11 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2423,8 +2557,8 @@
       <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
+      <c r="L58" s="3">
+        <v>100</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
@@ -2432,8 +2566,11 @@
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2458,11 +2595,11 @@
       <c r="J59" s="3">
         <v>0</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -2470,8 +2607,11 @@
       <c r="N59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2508,8 +2648,11 @@
       <c r="N60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2546,8 +2689,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2584,8 +2730,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2622,8 +2771,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2660,8 +2812,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2698,8 +2853,11 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2736,8 +2894,11 @@
       <c r="N66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2752,8 +2913,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2790,8 +2952,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2828,8 +2993,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2866,8 +3034,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2904,8 +3075,11 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2922,7 +3096,7 @@
         <v>-200</v>
       </c>
       <c r="H72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I72" s="3">
         <v>-100</v>
@@ -2942,8 +3116,11 @@
       <c r="N72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2980,8 +3157,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3018,8 +3198,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3056,8 +3239,11 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3094,8 +3280,11 @@
       <c r="N76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3132,51 +3321,57 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E80" s="2">
         <v>44865</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44773</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44592</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44500</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44316</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44227</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42855</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42766</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3213,8 +3408,11 @@
       <c r="N81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3229,8 +3427,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3267,8 +3466,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3305,8 +3507,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3343,8 +3548,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3381,8 +3589,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3419,8 +3630,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3457,8 +3671,11 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3495,8 +3712,11 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3511,8 +3731,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3549,8 +3770,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3587,8 +3811,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3625,8 +3852,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3663,8 +3893,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3679,8 +3912,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3717,8 +3951,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3755,8 +3992,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3793,8 +4033,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3831,8 +4074,11 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3869,8 +4115,11 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3907,8 +4156,11 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3943,6 +4195,9 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NFTN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NFTN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>NFTN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,69 +665,72 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E7" s="2">
         <v>44957</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44865</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44773</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44681</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44592</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44500</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44408</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44316</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44227</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42855</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42766</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -767,8 +770,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -808,8 +814,11 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -849,8 +858,11 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -866,8 +878,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -907,8 +920,11 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -948,8 +964,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -980,17 +999,20 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1030,8 +1052,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1044,8 +1069,9 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1085,8 +1111,11 @@
       <c r="O17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1126,8 +1155,11 @@
       <c r="O18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1143,8 +1175,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1184,16 +1217,19 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>0</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
@@ -1225,8 +1261,11 @@
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1266,8 +1305,11 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1307,8 +1349,11 @@
       <c r="O23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1348,8 +1393,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1389,8 +1437,11 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1430,8 +1481,11 @@
       <c r="O26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1471,8 +1525,11 @@
       <c r="O27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1512,8 +1569,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1553,8 +1613,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1594,8 +1657,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1635,8 +1701,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1676,8 +1745,11 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1717,8 +1789,11 @@
       <c r="O33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1758,8 +1833,11 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1799,54 +1877,60 @@
       <c r="O35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E38" s="2">
         <v>44957</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44865</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44773</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44681</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44592</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44500</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44408</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44316</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44227</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42855</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42766</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1862,8 +1946,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1879,8 +1964,9 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1920,8 +2006,11 @@
       <c r="O41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1961,8 +2050,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2002,8 +2094,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2043,8 +2138,11 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2084,8 +2182,11 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2125,8 +2226,11 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2166,8 +2270,11 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2207,8 +2314,11 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2248,8 +2358,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2289,8 +2402,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2330,8 +2446,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2371,8 +2490,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2412,8 +2534,11 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2453,8 +2578,11 @@
       <c r="O54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2470,8 +2598,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2487,8 +2616,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2528,8 +2658,11 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2560,8 +2693,8 @@
       <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
+      <c r="M58" s="3">
+        <v>100</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
@@ -2569,8 +2702,11 @@
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2598,11 +2734,11 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -2610,8 +2746,11 @@
       <c r="O59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2651,8 +2790,11 @@
       <c r="O60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2692,8 +2834,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2733,8 +2878,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2774,8 +2922,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2815,8 +2966,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2856,8 +3010,11 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2897,8 +3054,11 @@
       <c r="O66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2914,8 +3074,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2955,8 +3116,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2996,8 +3160,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3037,8 +3204,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3078,8 +3248,11 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3099,7 +3272,7 @@
         <v>-200</v>
       </c>
       <c r="I72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J72" s="3">
         <v>-100</v>
@@ -3119,8 +3292,11 @@
       <c r="O72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3160,8 +3336,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3201,8 +3380,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3242,8 +3424,11 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3283,8 +3468,11 @@
       <c r="O76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3324,54 +3512,60 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E80" s="2">
         <v>44957</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44865</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44773</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44681</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44592</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44500</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44408</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44316</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44227</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42855</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42766</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3411,8 +3605,11 @@
       <c r="O81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3428,8 +3625,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3469,8 +3667,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3510,8 +3711,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3551,8 +3755,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3592,8 +3799,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3633,8 +3843,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3674,8 +3887,11 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3715,8 +3931,11 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3732,8 +3951,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3773,8 +3993,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3814,8 +4037,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3855,8 +4081,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3896,8 +4125,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3913,8 +4145,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3954,8 +4187,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3995,8 +4231,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4036,8 +4275,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4077,8 +4319,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4118,8 +4363,11 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4159,8 +4407,11 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4198,6 +4449,9 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NFTN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NFTN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
   <si>
     <t>NFTN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,72 +665,76 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E7" s="2">
         <v>45046</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44957</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44865</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44773</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44681</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44592</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44500</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44408</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44316</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44227</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42855</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42766</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -773,8 +777,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -817,8 +824,11 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -861,8 +871,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -879,8 +892,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -923,8 +937,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -967,8 +984,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1002,17 +1022,20 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1055,8 +1078,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1070,8 +1096,9 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1114,8 +1141,11 @@
       <c r="P17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1158,8 +1188,11 @@
       <c r="P18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1176,8 +1209,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1220,8 +1254,11 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,8 +1268,8 @@
       <c r="E21" s="3">
         <v>0</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
+      <c r="F21" s="3">
+        <v>0</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
@@ -1264,8 +1301,11 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1308,8 +1348,11 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1352,8 +1395,11 @@
       <c r="P23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1396,8 +1442,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1440,8 +1489,11 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1484,8 +1536,11 @@
       <c r="P26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1528,8 +1583,11 @@
       <c r="P27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1572,8 +1630,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1616,8 +1677,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1660,8 +1724,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1704,8 +1771,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1748,8 +1818,11 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1792,8 +1865,11 @@
       <c r="P33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1836,8 +1912,11 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1880,57 +1959,63 @@
       <c r="P35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E38" s="2">
         <v>45046</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44957</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44865</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44773</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44681</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44592</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44500</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44408</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44316</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44227</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42855</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42766</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1947,8 +2032,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1965,8 +2051,9 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2009,8 +2096,11 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2053,8 +2143,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2097,8 +2190,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2141,8 +2237,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2185,8 +2284,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2229,8 +2331,11 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2273,8 +2378,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2317,8 +2425,11 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2361,8 +2472,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2405,8 +2519,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2449,8 +2566,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2493,8 +2613,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2537,8 +2660,11 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2581,8 +2707,11 @@
       <c r="P54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2599,8 +2728,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2617,8 +2747,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2661,8 +2792,11 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2696,8 +2830,8 @@
       <c r="M58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
+      <c r="N58" s="3">
+        <v>100</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
@@ -2705,8 +2839,11 @@
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2737,11 +2874,11 @@
       <c r="L59" s="3">
         <v>0</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -2749,8 +2886,11 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2793,8 +2933,11 @@
       <c r="P60" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2837,8 +2980,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2881,8 +3027,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2925,8 +3074,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2969,8 +3121,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3013,8 +3168,11 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3057,8 +3215,11 @@
       <c r="P66" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3075,8 +3236,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3119,8 +3281,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3163,8 +3328,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3207,8 +3375,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3251,8 +3422,11 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3275,7 +3449,7 @@
         <v>-200</v>
       </c>
       <c r="J72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K72" s="3">
         <v>-100</v>
@@ -3295,8 +3469,11 @@
       <c r="P72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3339,8 +3516,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3383,8 +3563,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3427,8 +3610,11 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3471,8 +3657,11 @@
       <c r="P76" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3515,57 +3704,63 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E80" s="2">
         <v>45046</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44957</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44865</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44773</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44681</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44592</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44500</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44408</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44316</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44227</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42855</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42766</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3608,8 +3803,11 @@
       <c r="P81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3626,8 +3824,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3670,8 +3869,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3714,8 +3916,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3758,8 +3963,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3802,8 +4010,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3846,8 +4057,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3890,8 +4104,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3934,8 +4151,11 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3952,8 +4172,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3996,8 +4217,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4040,8 +4264,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4084,8 +4311,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4128,8 +4358,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4146,8 +4379,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4190,8 +4424,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4234,8 +4471,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4278,8 +4518,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4322,8 +4565,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4366,8 +4612,11 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4410,8 +4659,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4452,6 +4704,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>
